--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1005538790521097</v>
+        <v>0.0813690089722293</v>
       </c>
       <c r="H2" t="n">
-        <v>19.89578020421604</v>
+        <v>-2.979368800744417</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.626752752079099</v>
+        <v>-19.50488776001889</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1051473598477699</v>
+        <v>0.1020986141018159</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.632840142868762</v>
+        <v>-12.25303426459704</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02435818428066022</v>
+        <v>-0.05326298023225386</v>
       </c>
       <c r="H4" t="n">
-        <v>57.91082060624274</v>
+        <v>-245.296710932894</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04725168057463734</v>
+        <v>-0.03570668148683907</v>
       </c>
       <c r="H5" t="n">
-        <v>-34.23718902632849</v>
+        <v>50.30501102692016</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03130178406046265</v>
+        <v>0.05694499017169452</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.93923644133823</v>
+        <v>60.20234839246388</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0455331714978507</v>
+        <v>0.03458030262198944</v>
       </c>
       <c r="H7" t="n">
-        <v>124.3555107711427</v>
+        <v>70.38746044174276</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1692979142627719</v>
+        <v>-0.1758208234456784</v>
       </c>
       <c r="H8" t="n">
-        <v>19.98613598703428</v>
+        <v>-24.60910297194649</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1523040832999951</v>
+        <v>-0.1319813867981288</v>
       </c>
       <c r="H9" t="n">
-        <v>11.26262678775749</v>
+        <v>3.583702655388098</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06656591999729156</v>
+        <v>-0.07684045662055893</v>
       </c>
       <c r="H10" t="n">
-        <v>-38.38036405673829</v>
+        <v>28.86929283234592</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06781488123077732</v>
+        <v>-0.08570468636454964</v>
       </c>
       <c r="H11" t="n">
-        <v>1.914642465216756</v>
+        <v>-28.80008502429542</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3553385504882132</v>
+        <v>-0.3875358177900524</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.41673963636016</v>
+        <v>6.662030481653862</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4774868958886845</v>
+        <v>-0.3930203541572335</v>
       </c>
       <c r="H13" t="n">
-        <v>6.368355273976448</v>
+        <v>12.44800847760531</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09988280913611086</v>
+        <v>-0.05175241099462968</v>
       </c>
       <c r="H14" t="n">
-        <v>96.86890490396624</v>
+        <v>-2.003944089807113</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04036731350679526</v>
+        <v>0.07136410518439568</v>
       </c>
       <c r="H15" t="n">
-        <v>-148.8167998673181</v>
+        <v>186.3016866334302</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.139338960893698</v>
+        <v>0.1256321363026952</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.577182555721447</v>
+        <v>-13.96396003919816</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1430867320307551</v>
+        <v>0.1662229210372103</v>
       </c>
       <c r="H17" t="n">
-        <v>16.68977235049282</v>
+        <v>35.55774557138481</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1446362328271117</v>
+        <v>0.1420657329275352</v>
       </c>
       <c r="H18" t="n">
-        <v>4.462789256619985</v>
+        <v>2.606258676107733</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1423928296577733</v>
+        <v>0.1553789570795664</v>
       </c>
       <c r="H19" t="n">
-        <v>49.24817940576896</v>
+        <v>62.85950997551824</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.020962191647871</v>
+        <v>-0.008281616630704133</v>
       </c>
       <c r="H20" t="n">
-        <v>-18.22521258137872</v>
+        <v>-132.3070913020267</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07591425084915276</v>
+        <v>0.05150866380851259</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9939696996335493</v>
+        <v>-31.47446791930518</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08313536830678755</v>
+        <v>0.100265250120685</v>
       </c>
       <c r="H24" t="n">
-        <v>-17.22594620933696</v>
+        <v>-0.1705125525225338</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1590121674305472</v>
+        <v>0.1441617297782654</v>
       </c>
       <c r="H25" t="n">
-        <v>4.926297705365811</v>
+        <v>-4.872961479242673</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0652073198252054</v>
+        <v>0.06571441597167615</v>
       </c>
       <c r="H26" t="n">
-        <v>-17.58918472085741</v>
+        <v>-16.94830257806134</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07057963995077211</v>
+        <v>0.08080391844028767</v>
       </c>
       <c r="H27" t="n">
-        <v>-29.31618700684488</v>
+        <v>-19.07681784532863</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2525173979995479</v>
+        <v>-0.2481334190863838</v>
       </c>
       <c r="H28" t="n">
-        <v>18.48646967325802</v>
+        <v>-16.42941463998958</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2795394603569517</v>
+        <v>-0.2368264597345006</v>
       </c>
       <c r="H29" t="n">
-        <v>36.15702421880598</v>
+        <v>-15.35253725019427</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05931280052392129</v>
+        <v>0.05552690071467495</v>
       </c>
       <c r="H30" t="n">
-        <v>34.39971175571871</v>
+        <v>25.82106029087132</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02679345363174752</v>
+        <v>0.02486085290129483</v>
       </c>
       <c r="H31" t="n">
-        <v>1.74814804129888</v>
+        <v>-5.590903800596786</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09863481893579434</v>
+        <v>0.0885665233015827</v>
       </c>
       <c r="H32" t="n">
-        <v>3.869303376305692</v>
+        <v>-6.733310031369455</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1313323741164718</v>
+        <v>0.1340588223107868</v>
       </c>
       <c r="H33" t="n">
-        <v>26.32377907792416</v>
+        <v>28.94624929277469</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04469504244308859</v>
+        <v>0.02277083504806572</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.731929825202561</v>
+        <v>-50.9541947714404</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01250230897124258</v>
+        <v>0.04571436392986222</v>
       </c>
       <c r="H35" t="n">
-        <v>-265.0137071017234</v>
+        <v>503.3682799885356</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0711994817581254</v>
+        <v>0.05890411277489923</v>
       </c>
       <c r="H36" t="n">
-        <v>23.31851614621901</v>
+        <v>2.022762005302656</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04915175314794019</v>
+        <v>0.09074591688184123</v>
       </c>
       <c r="H37" t="n">
-        <v>-30.10886192572302</v>
+        <v>29.03579222039239</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02272516438920047</v>
+        <v>0.0231828966048601</v>
       </c>
       <c r="H38" t="n">
-        <v>-56.62011617980851</v>
+        <v>-55.74635482891109</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01971233375639903</v>
+        <v>0.03495046693754375</v>
       </c>
       <c r="H39" t="n">
-        <v>-4.942755904577968</v>
+        <v>68.53890097374129</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.006320150010339767</v>
+        <v>-0.01274923616325488</v>
       </c>
       <c r="H40" t="n">
-        <v>-25.56639017337291</v>
+        <v>-50.15018134232891</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006235989213090164</v>
+        <v>0.01995055392497634</v>
       </c>
       <c r="H41" t="n">
-        <v>-82.36221585500458</v>
+        <v>-43.57213399869681</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1443494564630048</v>
+        <v>0.1384810220570401</v>
       </c>
       <c r="H42" t="n">
-        <v>7.976392924268372</v>
+        <v>3.586682046270459</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1575229169901762</v>
+        <v>0.1509587798637736</v>
       </c>
       <c r="H43" t="n">
-        <v>5.73687259036106</v>
+        <v>1.33071160590331</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02152832237134696</v>
+        <v>0.003723875677803335</v>
       </c>
       <c r="H44" t="n">
-        <v>152.9327350351163</v>
+        <v>143.7512056848029</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01341631109493607</v>
+        <v>0.0233067789819946</v>
       </c>
       <c r="H45" t="n">
-        <v>22.19012730934372</v>
+        <v>312.2683553495989</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01216703301478067</v>
+        <v>-0.01098926181057257</v>
       </c>
       <c r="H46" t="n">
-        <v>-469.4765682615524</v>
+        <v>-233.711163318585</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.004050131520468016</v>
+        <v>-0.01345824280807723</v>
       </c>
       <c r="H47" t="n">
-        <v>-56.34919682549595</v>
+        <v>-45.04790891881434</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05118672759887959</v>
+        <v>0.02935024089008401</v>
       </c>
       <c r="H48" t="n">
-        <v>1.819329942225493</v>
+        <v>-41.61725116538463</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07315660933031665</v>
+        <v>0.07372688960544371</v>
       </c>
       <c r="H49" t="n">
-        <v>10.73465363373939</v>
+        <v>11.59786735179479</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.153932608797337</v>
+        <v>0.143316286058201</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.542463655802374</v>
+        <v>-11.1259161265328</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1744674237318891</v>
+        <v>0.137156027046877</v>
       </c>
       <c r="H51" t="n">
-        <v>1.959188296870665</v>
+        <v>-19.84568300146701</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.172109968589517</v>
+        <v>-0.1537510469735322</v>
       </c>
       <c r="H52" t="n">
-        <v>7.279744472341069</v>
+        <v>4.163755493938917</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.124489626611456</v>
+        <v>-0.1389958052082297</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.241426318256909</v>
+        <v>-10.26643619836315</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1335965120248618</v>
+        <v>0.1121007637889977</v>
       </c>
       <c r="H54" t="n">
-        <v>42.54491868333805</v>
+        <v>19.6093671642345</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1197844204635262</v>
+        <v>0.1336142072779639</v>
       </c>
       <c r="H55" t="n">
-        <v>5.92821856885949</v>
+        <v>18.15822873855899</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.003076771704461975</v>
+        <v>-0.01854569271260227</v>
       </c>
       <c r="H56" t="n">
-        <v>-57.85689632083546</v>
+        <v>-154.0237384709681</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01419932799699446</v>
+        <v>0.007280970801648936</v>
       </c>
       <c r="H57" t="n">
-        <v>-37.90578099956023</v>
+        <v>131.8399712711118</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03304244018169115</v>
+        <v>0.03813848060411969</v>
       </c>
       <c r="H58" t="n">
-        <v>-41.40161690526404</v>
+        <v>-32.36415698106651</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08098382713800852</v>
+        <v>0.07546069113270223</v>
       </c>
       <c r="H59" t="n">
-        <v>12.75955251144768</v>
+        <v>5.06929673535451</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06743055787268414</v>
+        <v>0.07024787945312415</v>
       </c>
       <c r="H60" t="n">
-        <v>-3.634774721906096</v>
+        <v>0.3914685325623315</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06914164069411184</v>
+        <v>0.05725820351431644</v>
       </c>
       <c r="H61" t="n">
-        <v>45.47931218736874</v>
+        <v>20.47564941652469</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05797298157471915</v>
+        <v>0.06562825524976</v>
       </c>
       <c r="H62" t="n">
-        <v>-20.54177447968453</v>
+        <v>-10.04939603771758</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06366797005592542</v>
+        <v>0.05894839158643086</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.638694008997315</v>
+        <v>-9.855891653486113</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04190622592110791</v>
+        <v>-0.01124868724526061</v>
       </c>
       <c r="H64" t="n">
-        <v>1.184866234211875</v>
+        <v>72.83943163087666</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01272880018481863</v>
+        <v>0.003059007493109253</v>
       </c>
       <c r="H65" t="n">
-        <v>-74.19334275371942</v>
+        <v>106.2019009444918</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01532485253564942</v>
+        <v>0.0349751502538146</v>
       </c>
       <c r="H66" t="n">
-        <v>-19.06162226401033</v>
+        <v>84.72164192321077</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0387360246450751</v>
+        <v>0.03626026001771351</v>
       </c>
       <c r="H67" t="n">
-        <v>48.1307599606573</v>
+        <v>38.66316747807628</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>0.000814355755831845</v>
+        <v>-0.01553740118537122</v>
       </c>
       <c r="H68" t="n">
-        <v>42.88111795833161</v>
+        <v>-2826.082839882759</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.005498506123459932</v>
+        <v>0.01767072443274826</v>
       </c>
       <c r="H69" t="n">
-        <v>-142.5834532266245</v>
+        <v>236.8518012832564</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0300178533289119</v>
+        <v>-0.02297574462045</v>
       </c>
       <c r="H70" t="n">
-        <v>9.362353668182106</v>
+        <v>16.29376419960787</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02323265944064578</v>
+        <v>-0.04741592731315789</v>
       </c>
       <c r="H71" t="n">
-        <v>-57.82930351304883</v>
+        <v>13.93311280273561</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1425954477504105</v>
+        <v>-0.1390226207186355</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.868764256411291</v>
+        <v>6.277398494608001</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1626880217657804</v>
+        <v>-0.15300506394399</v>
       </c>
       <c r="H73" t="n">
-        <v>12.36149322128097</v>
+        <v>-5.673898229060721</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1326373566246543</v>
+        <v>0.1332764033230485</v>
       </c>
       <c r="H74" t="n">
-        <v>5.225064037002909</v>
+        <v>5.732038327446992</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1258068553649228</v>
+        <v>0.151307723382007</v>
       </c>
       <c r="H75" t="n">
-        <v>-6.928301297077201</v>
+        <v>11.93719770824018</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.07211954009181103</v>
+        <v>-0.06343822942580687</v>
       </c>
       <c r="H76" t="n">
-        <v>109.4188256754793</v>
+        <v>-84.21026385320229</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03671774862001857</v>
+        <v>-0.02003753732815276</v>
       </c>
       <c r="H77" t="n">
-        <v>-20.50199755862672</v>
+        <v>56.61650696731115</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07250066767338166</v>
+        <v>0.07524738761557051</v>
       </c>
       <c r="H78" t="n">
-        <v>-21.34158862098839</v>
+        <v>-18.36157982811836</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09347225878723772</v>
+        <v>0.08489854849094602</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.142001566119551</v>
+        <v>-12.02626764918279</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1753682545863743</v>
+        <v>-0.1557417508788178</v>
       </c>
       <c r="H80" t="n">
-        <v>7.976829126815161</v>
+        <v>4.107499602954213</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1711161819600592</v>
+        <v>-0.1662573550978095</v>
       </c>
       <c r="H81" t="n">
-        <v>-20.94368168441402</v>
+        <v>23.18847793139895</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1555008802148154</v>
+        <v>0.1685177462083341</v>
       </c>
       <c r="H82" t="n">
-        <v>12.07571203980776</v>
+        <v>21.45748867499476</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.149431516440027</v>
+        <v>0.1868303018816677</v>
       </c>
       <c r="H83" t="n">
-        <v>-9.226166873222716</v>
+        <v>13.49214041362145</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0588242596371235</v>
+        <v>0.03723773714639652</v>
       </c>
       <c r="H84" t="n">
-        <v>320.3225708891335</v>
+        <v>166.0783409433583</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0002148066924364345</v>
+        <v>0.0149410500384773</v>
       </c>
       <c r="H85" t="n">
-        <v>-100.9488270215103</v>
+        <v>-34.00358319636724</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0813690089722293</v>
+        <v>0.07113107972035676</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.979368800744417</v>
+        <v>-15.18660065395526</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.50488776001889</v>
+        <v>-11.02553747096676</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1020986141018159</v>
+        <v>0.109712538079388</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.25303426459704</v>
+        <v>-5.709373194861725</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05326298023225386</v>
+        <v>-0.04334235139729783</v>
       </c>
       <c r="H4" t="n">
-        <v>-245.296710932894</v>
+        <v>-180.9826133709635</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03570668148683907</v>
+        <v>-0.02403659623448773</v>
       </c>
       <c r="H5" t="n">
-        <v>50.30501102692016</v>
+        <v>66.54692245025589</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05694499017169452</v>
+        <v>0.04351540542916248</v>
       </c>
       <c r="H6" t="n">
-        <v>60.20234839246388</v>
+        <v>22.42113169188307</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03458030262198944</v>
+        <v>0.05578991574085917</v>
       </c>
       <c r="H7" t="n">
-        <v>70.38746044174276</v>
+        <v>174.8935474988888</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1758208234456784</v>
+        <v>-0.1441940543403089</v>
       </c>
       <c r="H8" t="n">
-        <v>-24.60910297194649</v>
+        <v>-2.194332918622467</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1319813867981288</v>
+        <v>-0.1512036640870018</v>
       </c>
       <c r="H9" t="n">
-        <v>3.583702655388098</v>
+        <v>-10.4587380833149</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07684045662055893</v>
+        <v>-0.07488830920606399</v>
       </c>
       <c r="H10" t="n">
-        <v>28.86929283234592</v>
+        <v>30.67638290176361</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08570468636454964</v>
+        <v>-0.09642597429516885</v>
       </c>
       <c r="H11" t="n">
-        <v>-28.80008502429542</v>
+        <v>-44.91242211587474</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3875358177900524</v>
+        <v>-0.3995684129053694</v>
       </c>
       <c r="H12" t="n">
-        <v>6.662030481653862</v>
+        <v>3.763980947795051</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3930203541572335</v>
+        <v>-0.4650545332056512</v>
       </c>
       <c r="H13" t="n">
-        <v>12.44800847760531</v>
+        <v>-3.598834304604964</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05175241099462968</v>
+        <v>-0.0664894990863929</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.003944089807113</v>
+        <v>-31.05072820803433</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07136410518439568</v>
+        <v>0.04788052288441671</v>
       </c>
       <c r="H15" t="n">
-        <v>186.3016866334302</v>
+        <v>157.9026370629705</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1256321363026952</v>
+        <v>0.1425776452543689</v>
       </c>
       <c r="H16" t="n">
-        <v>-13.96396003919816</v>
+        <v>-2.359250223473684</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1662229210372103</v>
+        <v>0.1680684862885647</v>
       </c>
       <c r="H17" t="n">
-        <v>35.55774557138481</v>
+        <v>37.06283682605287</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1420657329275352</v>
+        <v>0.1348878766200803</v>
       </c>
       <c r="H18" t="n">
-        <v>2.606258676107733</v>
+        <v>-2.577911819097585</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1553789570795664</v>
+        <v>0.1309136457753863</v>
       </c>
       <c r="H19" t="n">
-        <v>62.85950997551824</v>
+        <v>37.21634255255154</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008281616630704133</v>
+        <v>0.01784431859928216</v>
       </c>
       <c r="H20" t="n">
-        <v>-132.3070913020267</v>
+        <v>-30.3882254012952</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05150866380851259</v>
+        <v>0.05339173384659295</v>
       </c>
       <c r="H21" t="n">
-        <v>-31.47446791930518</v>
+        <v>-28.96928982374477</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.100265250120685</v>
+        <v>0.09143780897749496</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1705125525225338</v>
+        <v>-8.959588765235587</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1441617297782654</v>
+        <v>0.1415073151844194</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.872961479242673</v>
+        <v>-6.624512322224582</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06571441597167615</v>
+        <v>0.07970778036459751</v>
       </c>
       <c r="H26" t="n">
-        <v>-16.94830257806134</v>
+        <v>0.7368985804903471</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08080391844028767</v>
+        <v>0.06401234847376806</v>
       </c>
       <c r="H27" t="n">
-        <v>-19.07681784532863</v>
+        <v>-35.89317157287365</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2481334190863838</v>
+        <v>-0.2993869408769317</v>
       </c>
       <c r="H28" t="n">
-        <v>-16.42941463998958</v>
+        <v>-40.47864413226516</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2368264597345006</v>
+        <v>-0.2379347487881293</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.35253725019427</v>
+        <v>-15.89235849519372</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05552690071467495</v>
+        <v>0.06037406915809573</v>
       </c>
       <c r="H30" t="n">
-        <v>25.82106029087132</v>
+        <v>36.80449111647248</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02486085290129483</v>
+        <v>0.0347789738336989</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.590903800596786</v>
+        <v>32.07316335519585</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0885665233015827</v>
+        <v>0.1102841785658499</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.733310031369455</v>
+        <v>16.13688679775018</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1340588223107868</v>
+        <v>0.1192159242993803</v>
       </c>
       <c r="H33" t="n">
-        <v>28.94624929277469</v>
+        <v>14.66941175075153</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02277083504806572</v>
+        <v>0.05105453160520626</v>
       </c>
       <c r="H34" t="n">
-        <v>-50.9541947714404</v>
+        <v>9.965691107010636</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04571436392986222</v>
+        <v>0.03704941282326985</v>
       </c>
       <c r="H35" t="n">
-        <v>503.3682799885356</v>
+        <v>389.0025490469271</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05890411277489923</v>
+        <v>0.06676471260712706</v>
       </c>
       <c r="H36" t="n">
-        <v>2.022762005302656</v>
+        <v>15.63743283426455</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09074591688184123</v>
+        <v>0.06387032189697642</v>
       </c>
       <c r="H37" t="n">
-        <v>29.03579222039239</v>
+        <v>-9.179852179145161</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0231828966048601</v>
+        <v>0.007276797059882698</v>
       </c>
       <c r="H38" t="n">
-        <v>-55.74635482891109</v>
+        <v>-86.1093805248408</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03495046693754375</v>
+        <v>0.01960301020224836</v>
       </c>
       <c r="H39" t="n">
-        <v>68.53890097374129</v>
+        <v>-5.469938322484507</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01274923616325488</v>
+        <v>-0.02340155902684452</v>
       </c>
       <c r="H40" t="n">
-        <v>-50.15018134232891</v>
+        <v>-175.6046155691306</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01995055392497634</v>
+        <v>0.02113112751111922</v>
       </c>
       <c r="H41" t="n">
-        <v>-43.57213399869681</v>
+        <v>-40.23301627925598</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1384810220570401</v>
+        <v>0.1331046791015223</v>
       </c>
       <c r="H42" t="n">
-        <v>3.586682046270459</v>
+        <v>-0.4349342014456794</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1509587798637736</v>
+        <v>0.1582357404591176</v>
       </c>
       <c r="H43" t="n">
-        <v>1.33071160590331</v>
+        <v>6.215353599696199</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>0.003723875677803335</v>
+        <v>0.0008443675012952286</v>
       </c>
       <c r="H44" t="n">
-        <v>143.7512056848029</v>
+        <v>109.9203355372278</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0233067789819946</v>
+        <v>-0.02633038165329555</v>
       </c>
       <c r="H45" t="n">
-        <v>312.2683553495989</v>
+        <v>-139.8060587260944</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01098926181057257</v>
+        <v>-0.02388432679770326</v>
       </c>
       <c r="H46" t="n">
-        <v>-233.711163318585</v>
+        <v>-625.2958950413364</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01345824280807723</v>
+        <v>-0.01695647487507642</v>
       </c>
       <c r="H47" t="n">
-        <v>-45.04790891881434</v>
+        <v>-82.75054614025316</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02935024089008401</v>
+        <v>0.05116786146639996</v>
       </c>
       <c r="H48" t="n">
-        <v>-41.61725116538463</v>
+        <v>1.781801913812923</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07372688960544371</v>
+        <v>0.07136811459518631</v>
       </c>
       <c r="H49" t="n">
-        <v>11.59786735179479</v>
+        <v>8.027470416346187</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.143316286058201</v>
+        <v>0.1431706587327816</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.1259161265328</v>
+        <v>-11.21622334485086</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.137156027046877</v>
+        <v>0.180493888884431</v>
       </c>
       <c r="H51" t="n">
-        <v>-19.84568300146701</v>
+        <v>5.481069242374876</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1537510469735322</v>
+        <v>-0.1621569569426365</v>
       </c>
       <c r="H52" t="n">
-        <v>4.163755493938917</v>
+        <v>-1.075824066346579</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1389958052082297</v>
+        <v>-0.1261687697314961</v>
       </c>
       <c r="H53" t="n">
-        <v>-10.26643619836315</v>
+        <v>-0.09065077166996861</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1121007637889977</v>
+        <v>0.1170795287136437</v>
       </c>
       <c r="H54" t="n">
-        <v>19.6093671642345</v>
+        <v>24.92161394800567</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1336142072779639</v>
+        <v>0.1260935950745711</v>
       </c>
       <c r="H55" t="n">
-        <v>18.15822873855899</v>
+        <v>11.50757208246073</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01854569271260227</v>
+        <v>-0.02219236260563758</v>
       </c>
       <c r="H56" t="n">
-        <v>-154.0237384709681</v>
+        <v>-203.9728416699488</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>0.007280970801648936</v>
+        <v>-7.283743530589136e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>131.8399712711118</v>
+        <v>99.68147903476336</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03813848060411969</v>
+        <v>0.04274755747674795</v>
       </c>
       <c r="H58" t="n">
-        <v>-32.36415698106651</v>
+        <v>-24.19029176983394</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07546069113270223</v>
+        <v>0.0593586142394708</v>
       </c>
       <c r="H59" t="n">
-        <v>5.06929673535451</v>
+        <v>-17.35077217410241</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07024787945312415</v>
+        <v>0.09035552577767574</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3914685325623315</v>
+        <v>29.1273700141456</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05725820351431644</v>
+        <v>0.08426843896438584</v>
       </c>
       <c r="H61" t="n">
-        <v>20.47564941652469</v>
+        <v>77.30725531779474</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06562825524976</v>
+        <v>0.06649048740053821</v>
       </c>
       <c r="H62" t="n">
-        <v>-10.04939603771758</v>
+        <v>-8.867613855286608</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05894839158643086</v>
+        <v>0.06710569676811075</v>
       </c>
       <c r="H63" t="n">
-        <v>-9.855891653486113</v>
+        <v>2.618290971747636</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01124868724526061</v>
+        <v>-0.02849504783070192</v>
       </c>
       <c r="H64" t="n">
-        <v>72.83943163087666</v>
+        <v>31.19715412895823</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.003059007493109253</v>
+        <v>-0.004847950891731147</v>
       </c>
       <c r="H65" t="n">
-        <v>106.2019009444918</v>
+        <v>90.17115476768019</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0349751502538146</v>
+        <v>0.04488240263105538</v>
       </c>
       <c r="H66" t="n">
-        <v>84.72164192321077</v>
+        <v>137.0469046537676</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03626026001771351</v>
+        <v>0.04640519130130798</v>
       </c>
       <c r="H67" t="n">
-        <v>38.66316747807628</v>
+        <v>77.4584851328155</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01553740118537122</v>
+        <v>-0.007597334327381687</v>
       </c>
       <c r="H68" t="n">
-        <v>-2826.082839882759</v>
+        <v>-1432.974703531967</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01767072443274826</v>
+        <v>0.001072836816825439</v>
       </c>
       <c r="H69" t="n">
-        <v>236.8518012832564</v>
+        <v>108.3086379069702</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.02297574462045</v>
+        <v>-0.03070396398005286</v>
       </c>
       <c r="H70" t="n">
-        <v>16.29376419960787</v>
+        <v>-11.86202194437141</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.04741592731315789</v>
+        <v>-0.02366936598007949</v>
       </c>
       <c r="H71" t="n">
-        <v>13.93311280273561</v>
+        <v>57.03661686538477</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1390226207186355</v>
+        <v>-0.1385668657804331</v>
       </c>
       <c r="H72" t="n">
-        <v>6.277398494608001</v>
+        <v>6.584647331066837</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.15300506394399</v>
+        <v>-0.1284915771111152</v>
       </c>
       <c r="H73" t="n">
-        <v>-5.673898229060721</v>
+        <v>11.25649378570882</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1332764033230485</v>
+        <v>0.1323046001620441</v>
       </c>
       <c r="H74" t="n">
-        <v>5.732038327446992</v>
+        <v>4.961078678896199</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.151307723382007</v>
+        <v>0.1537748728016279</v>
       </c>
       <c r="H75" t="n">
-        <v>11.93719770824018</v>
+        <v>13.76239067385398</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.06343822942580687</v>
+        <v>-0.0495867365127257</v>
       </c>
       <c r="H76" t="n">
-        <v>-84.21026385320229</v>
+        <v>-43.9886626613908</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02003753732815276</v>
+        <v>0.005931709357930415</v>
       </c>
       <c r="H77" t="n">
-        <v>56.61650696731115</v>
+        <v>112.8428093426505</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07524738761557051</v>
+        <v>0.08921969374043801</v>
       </c>
       <c r="H78" t="n">
-        <v>-18.36157982811836</v>
+        <v>-3.202555251482371</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08489854849094602</v>
+        <v>0.09582699101861711</v>
       </c>
       <c r="H79" t="n">
-        <v>-12.02626764918279</v>
+        <v>-0.7019765390331975</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1557417508788178</v>
+        <v>-0.1937122562041756</v>
       </c>
       <c r="H80" t="n">
-        <v>4.107499602954213</v>
+        <v>-19.27150234380712</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1662573550978095</v>
+        <v>-0.1587198902126401</v>
       </c>
       <c r="H81" t="n">
-        <v>23.18847793139895</v>
+        <v>26.67081499869976</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1685177462083341</v>
+        <v>0.1609783401555391</v>
       </c>
       <c r="H82" t="n">
-        <v>21.45748867499476</v>
+        <v>16.02353678638205</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1868303018816677</v>
+        <v>0.1955055024970945</v>
       </c>
       <c r="H83" t="n">
-        <v>13.49214041362145</v>
+        <v>18.76198730915315</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03723773714639652</v>
+        <v>0.03676295923534353</v>
       </c>
       <c r="H84" t="n">
-        <v>166.0783409433583</v>
+        <v>162.685865230001</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0149410500384773</v>
+        <v>0.06993785002077196</v>
       </c>
       <c r="H85" t="n">
-        <v>-34.00358319636724</v>
+        <v>208.9239035030513</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>